--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H2">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I2">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J2">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N2">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O2">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P2">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q2">
-        <v>4.8622782166</v>
+        <v>11.187064597632</v>
       </c>
       <c r="R2">
-        <v>43.7605039494</v>
+        <v>100.683581378688</v>
       </c>
       <c r="S2">
-        <v>0.02781998604176521</v>
+        <v>0.03272001462225334</v>
       </c>
       <c r="T2">
-        <v>0.02781998604176522</v>
+        <v>0.03272001462225333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H3">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I3">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J3">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.117555</v>
       </c>
       <c r="O3">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P3">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q3">
-        <v>0.005638564759999999</v>
+        <v>0.00689742207</v>
       </c>
       <c r="R3">
-        <v>0.05074708284</v>
+        <v>0.06207679862999999</v>
       </c>
       <c r="S3">
-        <v>3.226158313673761E-05</v>
+        <v>2.017363438073148E-05</v>
       </c>
       <c r="T3">
-        <v>3.226158313673762E-05</v>
+        <v>2.017363438073148E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H4">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I4">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J4">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N4">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O4">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P4">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q4">
-        <v>0.03825230536800001</v>
+        <v>0.06512520629999999</v>
       </c>
       <c r="R4">
-        <v>0.3442707483120001</v>
+        <v>0.5861268566999999</v>
       </c>
       <c r="S4">
-        <v>0.0002188641936962708</v>
+        <v>0.0001904787161830029</v>
       </c>
       <c r="T4">
-        <v>0.0002188641936962709</v>
+        <v>0.0001904787161830029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>12.831823</v>
       </c>
       <c r="I5">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J5">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N5">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O5">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P5">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q5">
-        <v>144.5300621100583</v>
+        <v>271.8418394791182</v>
       </c>
       <c r="R5">
-        <v>1300.770558990525</v>
+        <v>2446.576555312064</v>
       </c>
       <c r="S5">
-        <v>0.826942460180505</v>
+        <v>0.7950851525948778</v>
       </c>
       <c r="T5">
-        <v>0.8269424601805051</v>
+        <v>0.7950851525948777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.831823</v>
       </c>
       <c r="I6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.117555</v>
       </c>
       <c r="O6">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P6">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q6">
         <v>0.1676049947516667</v>
@@ -818,10 +818,10 @@
         <v>1.508444952765</v>
       </c>
       <c r="S6">
-        <v>0.0009589678761290605</v>
+        <v>0.0004902124083736901</v>
       </c>
       <c r="T6">
-        <v>0.0009589678761290607</v>
+        <v>0.00049021240837369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.831823</v>
       </c>
       <c r="I7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N7">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O7">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P7">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q7">
-        <v>1.137040667853</v>
+        <v>1.582520215427778</v>
       </c>
       <c r="R7">
-        <v>10.233366010677</v>
+        <v>14.24268193885</v>
       </c>
       <c r="S7">
-        <v>0.006505686038407978</v>
+        <v>0.004628567586868932</v>
       </c>
       <c r="T7">
-        <v>0.006505686038407978</v>
+        <v>0.004628567586868931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H8">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I8">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J8">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N8">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O8">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P8">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q8">
-        <v>23.82054301124166</v>
+        <v>56.68679639377066</v>
       </c>
       <c r="R8">
-        <v>214.384887101175</v>
+        <v>510.1811675439359</v>
       </c>
       <c r="S8">
-        <v>0.1362914964054447</v>
+        <v>0.1657979884451086</v>
       </c>
       <c r="T8">
-        <v>0.1362914964054447</v>
+        <v>0.1657979884451086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H9">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I9">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J9">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.117555</v>
       </c>
       <c r="O9">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P9">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q9">
-        <v>0.02762360942833333</v>
+        <v>0.03495043379000001</v>
       </c>
       <c r="R9">
-        <v>0.248612484855</v>
+        <v>0.31455390411</v>
       </c>
       <c r="S9">
-        <v>0.0001580511016617187</v>
+        <v>0.0001022233039491845</v>
       </c>
       <c r="T9">
-        <v>0.0001580511016617188</v>
+        <v>0.0001022233039491845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H10">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I10">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J10">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N10">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O10">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P10">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q10">
-        <v>0.187399948071</v>
+        <v>0.3300007144333333</v>
       </c>
       <c r="R10">
-        <v>1.686599532639</v>
+        <v>2.9700064299</v>
       </c>
       <c r="S10">
-        <v>0.001072226579253278</v>
+        <v>0.000965188688004741</v>
       </c>
       <c r="T10">
-        <v>0.001072226579253278</v>
+        <v>0.000965188688004741</v>
       </c>
     </row>
   </sheetData>
